--- a/tests/data/map_validate/metadata_lab_test.xlsx
+++ b/tests/data/map_validate/metadata_lab_test.xlsx
@@ -8,17 +8,17 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="OVERVIEW" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="METADATA_LAB" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="DATA VALIDATION" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="VERSION" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="1.Database Identifiers" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="2.Sample collection and process" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="3.Host information" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="4.Sequencing" sheetId="8" state="visible" r:id="rId10"/>
-    <sheet name="5.Pathogen diagnostic testing" sheetId="9" state="visible" r:id="rId11"/>
-    <sheet name="6.Contributor Acknowledgement" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="7.Files" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="OVERVIEW" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="METADATA_LAB" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="DATA VALIDATION" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="VERSION" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="1.Database Identifiers" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="2.Sample collection and process" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="3.Host information" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="4.Sequencing" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="5.Pathogen diagnostic testing" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="6.Contributor Acknowledgement" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="7.Files" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="979">
   <si>
     <t xml:space="preserve">Unnamed: 0</t>
   </si>
@@ -740,7 +740,7 @@
     <t xml:space="preserve">2023-02-14</t>
   </si>
   <si>
-    <t xml:space="preserve">Urine [NCIT:C13283]</t>
+    <t xml:space="preserve">urine specimen obtained by simple bladder catheterization (specimen) [SNOMED: 447589008]</t>
   </si>
   <si>
     <t xml:space="preserve">Bed rail [ENVO:03501209]</t>
@@ -791,802 +791,808 @@
     <t xml:space="preserve">Illumina DNA Prep</t>
   </si>
   <si>
+    <t xml:space="preserve">Illumina AmpliSeq SARS-CoV-2 Research Panel for Illumina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChIP-Seq strategy [GENEPIO:0001979]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMPLE3_R1.fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMPLE3_R2.fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id4000_BAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specimen obtained from stomach by biopsy (specimen) [SNOMED: 309211008]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloth [ENVO:02000058]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single-end [OBI:0002481]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMPLE4_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMPLE4_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singleid1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singleid2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singleid3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singleid4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINGLEID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saliva specimen (specimen) [SNOMED: 119342007]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excreta Material [ENVO:02000022]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ion Xpress Plus Fragment Library Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ion AmpliSeq SARS-CoV-2 Research Panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ion Torrent S5 XL [GENEPIO:0100138]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singlesamp.fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55GOOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAIRED4397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id5000GOOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Universitario De Fuenlabrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Particulate matter [ENVO:01000060]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARTIC v3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCR [GENEPIO:0001955]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMPLE5_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMPLE5_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes [SNOMED:373066001]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66GOOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAIRED6666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id6000GOOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blood specimen [SNOMED:119297000]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMPLE6_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMPLE6_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33500052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33500053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33500054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33500055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33500056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specimen obtained from nasopharyngeal structure (specimen) [SNOMED: 430248009]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swab [SNOMED:257261003]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female [LOINC:LA3-6]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eMAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illumina iSeq 100 [GENEPIO:0100121]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iSeq 100 i1 Reagent v2 (300-cycle) 4 pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">viral rna [GENEPIO:0001972]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMPLE20_TEST2_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMPLE20_TEST2_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33597809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33597810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33597811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33597812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33597813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male [LOINC:LA2-8]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMPLE21_TEST2_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMPLE21_TEST2_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35184258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35184259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35184260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35184261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35184262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMPLE22_TEST2_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMPLE22_TEST2_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37145955EXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37145956EXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37145957EXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37145958EXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37145959EXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-binary Gender [SNOMED:772004004]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMPLE23_TEST2_R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMPLE23_TEST2_R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respiratory syncytial virus [SNOMED:6415009]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39156978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39156979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39156980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39156981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39156982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing [LOINC:LA14698-7]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMPLE24_TEST2_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMPLE24_TEST2_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39158527BAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39158528BAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39158529BAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39158530BAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39158531BAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMPLE25_TEST2_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMPLE25_TEST2_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39159219BAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39159220BAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39159221BAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39159222BAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39159223BAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transgender (assigned female at birth) [GSSO:004005]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMPLE26_TEST2_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMPLE26_TEST2_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estos identificadores pueden ser el mismo, si no has hecho ningún pase ni extracción y no tienes un identificador especifico para secuenciación, puedes arrastrar el id. de la columna E a las columnas F y G </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EJEMPLOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hCoV-19/Spain/CT-HUJT-RB31776/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARTIC v.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illumina NextSeq 500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESCRIPCIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI APLICA Sistema mediomabiental de la que se obtuvo la muestra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edad del huésped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autores del analisis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autores que entregan la muestra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submitting Institution/Sequencing Institution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biological Sample Storage Condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anatomical Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amplicon panel/assay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If Amplicon Protocol If Other, Especify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amplicon Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis Authors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author Submitter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral epithelium from ectoderm biopsy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animal litter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ion Xpress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illumina DNA PCR-Free Prep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARTIC v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illumina Genome Analyzer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HiSeq 3000/4000 PE Cluster Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANDOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORF 3a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microbiología HUC San Cecilio, Granada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microbiología HUC San Cecilio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin epidermis biopsy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animal manure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquatic biome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pangolin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABL_DeepChek NGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illumina respiratory Virus Oligo Panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARTIC v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illumina Genome Analyzer II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HiSeq 3000/4000 SBS Kit (50 cycles)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transcriptomic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORF 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microbiología. Hospital Universitario Virgen del Rocio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epithelium biopsy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farmyard manure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terrestrial biome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Provided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ion AmpliSeq Kit for Chef DL8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illumina Stranded mRNA Prep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom probes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illumina AmpliSeq Community panel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illumina Genome Analyzer IIx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HiSeq 3000/4000 SBS Kit (150 cycles)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metagenomic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANDOM PCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bisultife-Seq strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORF 7a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Clínico Universitario Lozano Blesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bronchial lymph node biopsy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresh animal manure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocean biome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNext® Fast DNA Library Prep Set for Ion Torrent™</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nextera XT DNA Library Preparation Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom amplicon</t>
+  </si>
+  <si>
     <t xml:space="preserve">Illumina AmpliSeq SARS-CoV-2 Research Panel for Illumina</t>
   </si>
   <si>
-    <t xml:space="preserve">ChIP-Seq strategy [GENEPIO:0001979]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMPLE3_R1.fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMPLE3_R2.fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id4000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id4000_BAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stomach Necropsy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloth [ENVO:02000058]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single-end [OBI:0002481]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMPLE4_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMPLE4_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">singleid1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">singleid2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">singleid3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">singleid4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SINGLEID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saliva [NCIT:C13275] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excreta Material [ENVO:02000022]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ion Xpress Plus Fragment Library Kit</t>
+    <t xml:space="preserve">ARTIC v4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illumina HiSeq 1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HiSeq 3000/4000 SBS Kit (300 cycles)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metatranscriptomic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChIP-Seq strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORF 7b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Universitario Miguel Servet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hepatic diverticulum biopsy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horse manure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNext® ARTIC SARS-CoV-2 FS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TruSeq DNA Nano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No enrichment</t>
   </si>
   <si>
     <t xml:space="preserve">Ion AmpliSeq SARS‑CoV‑2 Research Panel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ion Torrent S5 XL [GENEPIO:0100138]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singlesamp.fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55GOOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAIRED4397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id5000GOOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Universitario De Fuenlabrada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Particulate matter [ENVO:01000060]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-06-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARTIC v3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCR [GENEPIO:0001955]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMPLE5_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMPLE5_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes [SNOMED:373066001]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66GOOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAIRED6666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id6000GOOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blood [NCIT:C12434]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMPLE6_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMPLE6_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33500052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33500053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33500054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33500055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33500056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specimen obtained from nasopharyngeal structure (specimen) [SNOMED: 430248009]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swab [SNOMED:257261003]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female [LOINC:LA3-6]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eMAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illumina iSeq 100 [GENEPIO:0100121]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iSeq 100 i1 Reagent v2 (300-cycle) 4 pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">viral rna [GENEPIO:0001972]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMPLE20_TEST2_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMPLE20_TEST2_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33597809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33597810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33597811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33597812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33597813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male [LOINC:LA2-8]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMPLE21_TEST2_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMPLE21_TEST2_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35184258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35184259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35184260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35184261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35184262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMPLE22_TEST2_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMPLE22_TEST2_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37145955EXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37145956EXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37145957EXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37145958EXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37145959EXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-binary Gender [SNOMED:772004004]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMPLE23_TEST2_R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMPLE23_TEST2_R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respiratory syncytial virus [SNOMED:6415009]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39156978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39156979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39156980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39156981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39156982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missing [LOINC:LA14698-7]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMPLE24_TEST2_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMPLE24_TEST2_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39158527BAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39158528BAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39158529BAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39158530BAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39158531BAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMPLE25_TEST2_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMPLE25_TEST2_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39159219BAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39159220BAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39159221BAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39159222BAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39159223BAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transgender (assigned female at birth) [GSSO:004005]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMPLE26_TEST2_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMPLE26_TEST2_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estos identificadores pueden ser el mismo, si no has hecho ningún pase ni extracción y no tienes un identificador especifico para secuenciación, puedes arrastrar el id. de la columna E a las columnas F y G </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EJEMPLOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hCoV-19/Spain/CT-HUJT-RB31776/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARTIC v.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illumina NextSeq 500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESCRIPCIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI APLICA Sistema mediomabiental de la que se obtuvo la muestra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edad del huésped</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autores del analisis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autores que entregan la muestra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submitting Institution/Sequencing Institution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biological Sample Storage Condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anatomical Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amplicon panel/assay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If Amplicon Protocol If Other, Especify</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amplicon Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Authors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Author Submitter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oral epithelium from ectoderm biopsy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animal litter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ion Xpress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illumina DNA PCR-Free Prep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARTIC v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illumina Genome Analyzer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HiSeq 3000/4000 PE Cluster Kit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genomic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RANDOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORF 3a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microbiología HUC San Cecilio, Granada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microbiología HUC San Cecilio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skin epidermis biopsy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animal manure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aquatic biome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pangolin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABL_DeepChek NGS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illumina respiratory Virus Oligo Panel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARTIC v2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illumina Genome Analyzer II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HiSeq 3000/4000 SBS Kit (50 cycles)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transcriptomic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paired</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORF 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microbiología. Hospital Universitario Virgen del Rocio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epithelium biopsy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farmyard manure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terrestrial biome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Provided</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ion AmpliSeq Kit for Chef DL8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illumina Stranded mRNA Prep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Custom probes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illumina AmpliSeq Community panel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illumina Genome Analyzer IIx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HiSeq 3000/4000 SBS Kit (150 cycles)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metagenomic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RANDOM PCR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bisultife-Seq strategy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORF 7a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Clínico Universitario Lozano Blesa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bronchial lymph node biopsy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fresh animal manure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocean biome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEBNext® Fast DNA Library Prep Set for Ion Torrent™</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nextera XT DNA Library Preparation Kit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Custom amplicon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARTIC v4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illumina HiSeq 1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HiSeq 3000/4000 SBS Kit (300 cycles)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metatranscriptomic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChIP-Seq strategy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORF 7b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Universitario Miguel Servet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hepatic diverticulum biopsy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Horse manure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEBNext® ARTIC SARS-CoV-2 FS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TruSeq DNA Nano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No enrichment</t>
   </si>
   <si>
     <t xml:space="preserve">Illumina HiSeq 1500</t>
@@ -2979,7 +2985,7 @@
   <fonts count="7">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -3002,7 +3008,7 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -3017,7 +3023,7 @@
     <font>
       <u val="single"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -3092,7 +3098,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3127,6 +3133,10 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -3237,183 +3247,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme 2007 - 2010">
-  <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1f497d"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="eeece1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4f81bd"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="c0504d"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9bbb59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064a2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4bacc6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="f79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ff"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
-      <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3423,7 +3258,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4394,7 +4229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4404,7 +4239,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4420,7 +4255,7 @@
         <v>390</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4445,7 +4280,7 @@
         <v>192</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>451</v>
@@ -4469,7 +4304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4479,7 +4314,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4489,10 +4324,10 @@
         <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4514,7 +4349,7 @@
         <v>192</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>186</v>
@@ -4535,25 +4370,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:BE18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG8" activeCellId="0" sqref="AG8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AD1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AG12" activeCellId="0" sqref="AG12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.41796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="61.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="30.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="53.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="32.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="31.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="26.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="54.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4830,7 +4666,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>230</v>
       </c>
@@ -4867,7 +4703,7 @@
       <c r="Q3" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="9" t="s">
         <v>236</v>
       </c>
       <c r="T3" s="2" t="s">
@@ -4935,7 +4771,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>244</v>
       </c>
@@ -4981,7 +4817,7 @@
         <v>251</v>
       </c>
       <c r="Y4" s="6"/>
-      <c r="AA4" s="9" t="n">
+      <c r="AA4" s="10" t="n">
         <v>44299</v>
       </c>
       <c r="AC4" s="2" t="s">
@@ -4993,7 +4829,7 @@
       <c r="AE4" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="AG4" s="2" t="s">
+      <c r="AG4" s="9" t="s">
         <v>253</v>
       </c>
       <c r="AI4" s="2" t="s">
@@ -5036,7 +4872,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
         <v>205</v>
       </c>
@@ -5070,7 +4906,7 @@
       <c r="Q5" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="9" t="s">
         <v>263</v>
       </c>
       <c r="T5" s="2" t="s">
@@ -5134,7 +4970,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
         <v>205</v>
       </c>
@@ -5171,7 +5007,7 @@
       <c r="Q6" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="S6" s="9" t="s">
         <v>276</v>
       </c>
       <c r="T6" s="2" t="s">
@@ -5184,7 +5020,7 @@
       <c r="Y6" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="AA6" s="9" t="n">
+      <c r="AA6" s="10" t="n">
         <v>44844</v>
       </c>
       <c r="AC6" s="2" t="s">
@@ -5196,7 +5032,7 @@
       <c r="AE6" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="AG6" s="2" t="s">
+      <c r="AG6" s="9" t="s">
         <v>279</v>
       </c>
       <c r="AI6" s="2" t="s">
@@ -5333,11 +5169,11 @@
       <c r="BC7" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="BD7" s="10" t="s">
+      <c r="BD7" s="11" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="s">
         <v>205</v>
       </c>
@@ -5371,7 +5207,7 @@
       <c r="Q8" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="S8" s="9" t="s">
         <v>302</v>
       </c>
       <c r="T8" s="2"/>
@@ -5436,41 +5272,41 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+    <row r="9" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="12" t="s">
         <v>311</v>
       </c>
       <c r="Q9" s="2" t="s">
@@ -5479,7 +5315,7 @@
       <c r="S9" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="U9" s="12" t="s">
         <v>215</v>
       </c>
       <c r="V9" s="2" t="s">
@@ -5488,34 +5324,34 @@
       <c r="W9" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="X9" s="11" t="s">
+      <c r="X9" s="12" t="s">
         <v>314</v>
       </c>
       <c r="Z9" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="AA9" s="12" t="s">
+      <c r="AA9" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="AB9" s="11" t="s">
+      <c r="AB9" s="12" t="s">
         <v>317</v>
       </c>
       <c r="AC9" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="AD9" s="11" t="s">
+      <c r="AD9" s="12" t="s">
         <v>252</v>
       </c>
       <c r="AE9" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="AG9" s="11" t="s">
+      <c r="AG9" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="AI9" s="11" t="s">
+      <c r="AI9" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="AJ9" s="11" t="s">
+      <c r="AJ9" s="12" t="s">
         <v>318</v>
       </c>
       <c r="AL9" s="2" t="s">
@@ -5530,13 +5366,13 @@
       <c r="AQ9" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="AS9" s="11" t="s">
+      <c r="AS9" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="AW9" s="11" t="s">
+      <c r="AW9" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="AX9" s="11" t="s">
+      <c r="AX9" s="12" t="s">
         <v>324</v>
       </c>
       <c r="AZ9" s="2" t="s">
@@ -5613,7 +5449,7 @@
       <c r="Z10" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="AA10" s="12" t="s">
+      <c r="AA10" s="13" t="s">
         <v>316</v>
       </c>
       <c r="AB10" s="2" t="s">
@@ -5732,7 +5568,7 @@
       <c r="Z11" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="AA11" s="12" t="s">
+      <c r="AA11" s="13" t="s">
         <v>316</v>
       </c>
       <c r="AB11" s="2" t="s">
@@ -5848,7 +5684,7 @@
       <c r="Z12" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="AA12" s="12" t="s">
+      <c r="AA12" s="13" t="s">
         <v>316</v>
       </c>
       <c r="AB12" s="2" t="s">
@@ -5964,7 +5800,7 @@
       <c r="Z13" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="AA13" s="12" t="s">
+      <c r="AA13" s="13" t="s">
         <v>316</v>
       </c>
       <c r="AB13" s="2" t="s">
@@ -6080,7 +5916,7 @@
       <c r="Z14" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="AA14" s="12" t="s">
+      <c r="AA14" s="13" t="s">
         <v>316</v>
       </c>
       <c r="AB14" s="2" t="s">
@@ -6144,38 +5980,38 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="14" t="s">
+    <row r="15" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="M15" s="13" t="s">
+      <c r="M15" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="N15" s="13" t="s">
+      <c r="N15" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="13" t="s">
+      <c r="O15" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="P15" s="13" t="s">
+      <c r="P15" s="14" t="s">
         <v>382</v>
       </c>
       <c r="Q15" s="2" t="s">
@@ -6190,34 +6026,34 @@
       <c r="W15" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="X15" s="13" t="s">
+      <c r="X15" s="14" t="s">
         <v>383</v>
       </c>
       <c r="Z15" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="AA15" s="12" t="s">
+      <c r="AA15" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="AB15" s="13" t="s">
+      <c r="AB15" s="14" t="s">
         <v>317</v>
       </c>
       <c r="AC15" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="AD15" s="13" t="s">
+      <c r="AD15" s="14" t="s">
         <v>252</v>
       </c>
       <c r="AE15" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="AG15" s="13" t="s">
+      <c r="AG15" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="AI15" s="13" t="s">
+      <c r="AI15" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="AJ15" s="13" t="s">
+      <c r="AJ15" s="14" t="s">
         <v>318</v>
       </c>
       <c r="AL15" s="2" t="s">
@@ -6232,13 +6068,13 @@
       <c r="AQ15" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="AS15" s="13" t="s">
+      <c r="AS15" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="AW15" s="13" t="s">
+      <c r="AW15" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="AX15" s="13" t="s">
+      <c r="AX15" s="14" t="s">
         <v>387</v>
       </c>
       <c r="AZ15" s="2" t="s">
@@ -6261,7 +6097,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="15"/>
+      <c r="B18" s="16"/>
     </row>
   </sheetData>
   <dataValidations count="23">
@@ -6273,7 +6109,7 @@
       <formula1>'1.Database Identifiers'!$P$1:$P$935</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="El valor ingresado no es válido. Seleccione un valor de la lista desplegable." errorStyle="stop" errorTitle="Valor no permitido" operator="between" prompt="Select a value for specimen_source" promptTitle="Value selection" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S15" type="list">
+    <dataValidation allowBlank="false" error="El valor ingresado no es válido. Seleccione un valor de la lista desplegable." errorStyle="stop" errorTitle="Valor no permitido" operator="between" prompt="Select a value for specimen_source" promptTitle="Value selection" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2 S4 S7 S9:S15" type="list">
       <formula1>'1.Database Identifiers'!$R$1:$R$935</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6369,7 +6205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -6379,7 +6215,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -7168,45 +7004,45 @@
         <v>506</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>253</v>
+        <v>507</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AJ9" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AK9" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AL9" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AM9" s="2" t="s">
         <v>107</v>
       </c>
       <c r="AN9" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AP9" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AR9" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K10" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>467</v>
@@ -7215,301 +7051,301 @@
         <v>467</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>279</v>
+        <v>520</v>
       </c>
       <c r="AG10" s="2" t="s">
         <v>222</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="AL10" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AM10" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="AN10" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AP10" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AR10" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K11" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AC11" s="2" t="s">
         <v>467</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AG11" s="2" t="s">
         <v>492</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AL11" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AM11" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AN11" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AP11" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="AR11" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K12" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>253</v>
+        <v>507</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AK12" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AL12" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AM12" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AN12" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AP12" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AR12" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K13" s="2" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AJ13" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="AK13" s="2" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AL13" s="2" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AM13" s="2" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AN13" s="2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AP13" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AR13" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K14" s="2" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AA14" s="2" t="s">
         <v>467</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="AE14" s="2" t="s">
         <v>467</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AJ14" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AK14" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AL14" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AM14" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AN14" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="AP14" s="2" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="AR14" s="2" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K15" s="2" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AJ15" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="AK15" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="AM15" s="2" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="AN15" s="2" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AP15" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AR15" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K16" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="S16" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AJ16" s="2" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="AK16" s="2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="AM16" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="AN16" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AP16" s="2" t="s">
         <v>467</v>
@@ -7520,416 +7356,416 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K17" s="2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="AG17" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AJ17" s="2" t="s">
         <v>438</v>
       </c>
       <c r="AK17" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="AM17" s="2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="AN17" s="2" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K18" s="2" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="AJ18" s="2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AK18" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AM18" s="2" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AN18" s="2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K19" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AG19" s="2" t="s">
         <v>467</v>
       </c>
       <c r="AJ19" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AK19" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AM19" s="2" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AN19" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K20" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AJ20" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="AK20" s="2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="AM20" s="2" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="AN20" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K21" s="16" t="s">
-        <v>620</v>
-      </c>
-      <c r="L21" s="16" t="s">
-        <v>620</v>
+      <c r="K21" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>622</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="AJ21" s="2" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="AK21" s="2" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="AM21" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="AN21" s="2" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K22" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AB22" s="2" t="s">
         <v>278</v>
       </c>
       <c r="AJ22" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AK22" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AM22" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AN22" s="2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K23" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="AJ23" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="AK23" s="2" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="AM23" s="2" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AN23" s="2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K24" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="AJ24" s="2" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="AK24" s="2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="AM24" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="AN24" s="2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K25" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="AJ25" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="AK25" s="2" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="AM25" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K26" s="2" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="AB26" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="AJ26" s="2" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="AK26" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="AM26" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K27" s="2" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="AJ27" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="AK27" s="2" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="AM27" s="2" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K28" s="2" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="AB28" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="AJ28" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="AK28" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="AM28" s="2" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K29" s="2" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="AB29" s="2" t="s">
         <v>467</v>
       </c>
       <c r="AJ29" s="2" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AK29" s="2" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AM29" s="2" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K30" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="AJ30" s="2" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="AK30" s="2" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="AM30" s="2" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K31" s="2" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="AJ31" s="2" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="AK31" s="2" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="AM31" s="2" t="s">
         <v>467</v>
@@ -7937,591 +7773,591 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K32" s="2" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="AJ32" s="2" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="AK32" s="2" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K33" s="2" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="AJ33" s="2" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="AK33" s="2" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K34" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AJ34" s="2" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="AK34" s="2" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K35" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="AJ35" s="2" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="AK35" s="2" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K36" s="2" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="AJ36" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="AK36" s="2" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K37" s="2" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="AJ37" s="2" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="AK37" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K38" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="AJ38" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="AK38" s="2" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K39" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="AJ39" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="AK39" s="2" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K40" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="AJ40" s="2" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="AK40" s="2" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K41" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="AJ41" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="AK41" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K42" s="2" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="AJ42" s="2" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="AK42" s="2" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K43" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="AJ43" s="2" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="AK43" s="2" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K44" s="2" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="AJ44" s="2" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="AK44" s="2" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K45" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="AJ45" s="2" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="AK45" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K46" s="2" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="AJ46" s="2" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="AK46" s="2" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K47" s="2" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="AJ47" s="2" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="AK47" s="2" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K48" s="2" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="AJ48" s="2" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="AK48" s="2" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K49" s="2" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="AJ49" s="2" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="AK49" s="2" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K50" s="2" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="AJ50" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="AK50" s="2" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K51" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="S51" s="2" t="s">
         <v>467</v>
       </c>
       <c r="AJ51" s="2" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="AK51" s="2" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K52" s="2" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="AJ52" s="2" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="AK52" s="2" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K53" s="2" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="AJ53" s="2" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="AK53" s="2" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K54" s="2" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="AJ54" s="2" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="AK54" s="2" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K55" s="2" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="AJ55" s="2" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="AK55" s="2" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K56" s="2" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="AJ56" s="2" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="AK56" s="2" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K57" s="2" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="AJ57" s="2" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="AK57" s="2" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K58" s="2" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="AJ58" s="2" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="AK58" s="2" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K59" s="2" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="Q59" s="2" t="s">
         <v>467</v>
       </c>
       <c r="AJ59" s="2" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="AK59" s="2" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K60" s="2" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="AJ60" s="2" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="AK60" s="2" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K61" s="2" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="AJ61" s="2" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="AK61" s="2" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K62" s="2" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="AJ62" s="2" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="AK62" s="2" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K63" s="2" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="AJ63" s="2" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="AK63" s="2" t="s">
         <v>148</v>
@@ -8529,414 +8365,414 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K64" s="2" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="AJ64" s="2" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="AK64" s="2" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K65" s="2" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="AJ65" s="2" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="AK65" s="2" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K66" s="2" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="AJ66" s="2" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="AK66" s="2" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K67" s="2" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="AJ67" s="2" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="AK67" s="2" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K68" s="2" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="AJ68" s="2" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="AK68" s="2" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K69" s="2" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="AJ69" s="2" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="AK69" s="2" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K70" s="2" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="AJ70" s="2" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="AK70" s="2" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K71" s="2" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="AJ71" s="2" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="AK71" s="2" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K72" s="2" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="AJ72" s="2" t="s">
         <v>467</v>
       </c>
       <c r="AK72" s="2" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K73" s="2" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="AK73" s="2" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K74" s="2" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="AK74" s="2" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K75" s="2" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="AK75" s="2" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K76" s="2" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="AK76" s="2" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K77" s="2" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="AK77" s="2" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K78" s="2" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="AK78" s="2" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K79" s="2" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="AK79" s="2" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K80" s="2" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="AK80" s="2" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K81" s="2" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="AK81" s="2" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K82" s="2" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>467</v>
       </c>
       <c r="AK82" s="2" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K83" s="2" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="AK83" s="2" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K84" s="2" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="AK84" s="2" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K85" s="2" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="AK85" s="2" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K86" s="2" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="AK86" s="2" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K87" s="2" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="AK87" s="2" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K88" s="2" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="AK88" s="2" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K89" s="2" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="AK89" s="2" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K90" s="2" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="AK90" s="2" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K91" s="2" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="AK91" s="2" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K92" s="2" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="AK92" s="2" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K93" s="2" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="AK93" s="2" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K94" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="AK94" s="2" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K95" s="2" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="AK95" s="2" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K96" s="2" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="AK96" s="2" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K97" s="2" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="AK97" s="2" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K98" s="2" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="AK98" s="2" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K99" s="2" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="AK99" s="2" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K100" s="2" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="AK100" s="2" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K101" s="2" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="AK101" s="2" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K102" s="2" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="AK102" s="2" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K103" s="2" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="AK103" s="2" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K104" s="2" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="AK104" s="2" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8944,122 +8780,122 @@
         <v>467</v>
       </c>
       <c r="AK105" s="2" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK106" s="2" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK107" s="2" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK108" s="2" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK109" s="2" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK110" s="2" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK111" s="2" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK112" s="2" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK113" s="2" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK114" s="2" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK115" s="2" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK116" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK117" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK118" s="2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK119" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK120" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK121" s="2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK122" s="2" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK123" s="2" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK124" s="2" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK125" s="2" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK126" s="2" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK127" s="2" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK128" s="2" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9069,7 +8905,7 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK130" s="2" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9089,7 +8925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -9099,56 +8935,56 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>382</v>
@@ -9156,58 +8992,58 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>954</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>952</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>964</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>965</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>962</v>
       </c>
     </row>
   </sheetData>
@@ -9222,7 +9058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -9232,7 +9068,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9374,7 +9210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -9384,7 +9220,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9399,10 +9235,10 @@
       <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="17" t="n">
+      <c r="E1" s="18" t="n">
         <v>44299</v>
       </c>
-      <c r="F1" s="17" t="n">
+      <c r="F1" s="18" t="n">
         <v>44329</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -9459,7 +9295,7 @@
         <v>77</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>85</v>
@@ -9508,18 +9344,18 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J4" s="2" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J5" s="2" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
   </sheetData>
@@ -9534,7 +9370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -9544,7 +9380,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9585,7 +9421,7 @@
         <v>192</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>89</v>
@@ -9609,7 +9445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -9619,7 +9455,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9628,7 +9464,7 @@
       <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="17" t="n">
+      <c r="C1" s="18" t="n">
         <v>44614</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -9741,13 +9577,13 @@
         <v>192</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>109</v>
@@ -9807,7 +9643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -9817,7 +9653,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9836,7 +9672,7 @@
         <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9864,7 +9700,7 @@
         <v>192</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>167</v>
